--- a/Documentation/TP_1or_fold4.xlsx
+++ b/Documentation/TP_1or_fold4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master DKE\WiSe18_19\TeamProject\DataFiles\Zain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master DKE\WiSe18_19\TeamProject\DataFiles\Zain\Transition Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
     <t>5_Unknown</t>
   </si>
   <si>
-    <t>ScreenRecStarted</t>
+    <t>0_unstated</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
